--- a/project7-2-grocery/store_clusters.xlsx
+++ b/project7-2-grocery/store_clusters.xlsx
@@ -491,7 +491,7 @@
         <v>6.76581030973681e-002</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>6.41486503646414e-002</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -686,7 +686,7 @@
         <v>5.75415412966342e-002</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -816,7 +816,7 @@
         <v>6.84237493861833e-002</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -881,7 +881,7 @@
         <v>6.37145911634982e-002</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1011,7 +1011,7 @@
         <v>8.06562141241903e-002</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1141,7 +1141,7 @@
         <v>7.13775306393306e-002</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1206,7 +1206,7 @@
         <v>8.31905790892111e-002</v>
       </c>
       <c r="Q13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1271,7 +1271,7 @@
         <v>9.31975049698301e-002</v>
       </c>
       <c r="Q14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1336,7 +1336,7 @@
         <v>0.108992370728502</v>
       </c>
       <c r="Q15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1401,7 +1401,7 @@
         <v>0.102664813401266</v>
       </c>
       <c r="Q16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1466,7 +1466,7 @@
         <v>7.36811884021023e-002</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1596,7 +1596,7 @@
         <v>6.69175500868334e-002</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1661,7 +1661,7 @@
         <v>7.77101636512383e-002</v>
       </c>
       <c r="Q20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1726,7 +1726,7 @@
         <v>6.26512843032089e-002</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1856,7 +1856,7 @@
         <v>7.28121631598526e-002</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1986,7 +1986,7 @@
         <v>7.39319446358521e-002</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2051,7 +2051,7 @@
         <v>5.87139105644904e-002</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2246,7 +2246,7 @@
         <v>5.8172145507103e-002</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2311,7 +2311,7 @@
         <v>8.87060955686722e-002</v>
       </c>
       <c r="Q30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2376,7 +2376,7 @@
         <v>6.46616097727536e-002</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2441,7 +2441,7 @@
         <v>9.71190715558803e-002</v>
       </c>
       <c r="Q32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2506,7 +2506,7 @@
         <v>0.101749496712517</v>
       </c>
       <c r="Q33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2571,7 +2571,7 @@
         <v>6.96168639069972e-002</v>
       </c>
       <c r="Q34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2701,7 +2701,7 @@
         <v>6.87684819207653e-002</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2766,7 +2766,7 @@
         <v>7.94510114624924e-002</v>
       </c>
       <c r="Q37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2831,7 +2831,7 @@
         <v>0.103099153839971</v>
       </c>
       <c r="Q38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2896,7 +2896,7 @@
         <v>6.83985424145919e-002</v>
       </c>
       <c r="Q39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2961,7 +2961,7 @@
         <v>6.29936132406248e-002</v>
       </c>
       <c r="Q40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3026,7 +3026,7 @@
         <v>0.07316724301864</v>
       </c>
       <c r="Q41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3091,7 +3091,7 @@
         <v>6.70277012518942e-002</v>
       </c>
       <c r="Q42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3156,7 +3156,7 @@
         <v>5.97225052999577e-002</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3286,7 +3286,7 @@
         <v>6.44732787191783e-002</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3351,7 +3351,7 @@
         <v>0.100870553725757</v>
       </c>
       <c r="Q46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3481,7 +3481,7 @@
         <v>0.100141616976695</v>
       </c>
       <c r="Q48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3546,7 +3546,7 @@
         <v>0.102347837339791</v>
       </c>
       <c r="Q49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3871,7 +3871,7 @@
         <v>6.15312975115349e-002</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3936,7 +3936,7 @@
         <v>6.33266913884252e-002</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -4131,7 +4131,7 @@
         <v>6.15028728527403e-002</v>
       </c>
       <c r="Q58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -4196,7 +4196,7 @@
         <v>6.61653697606014e-002</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -4261,7 +4261,7 @@
         <v>8.33867515369374e-002</v>
       </c>
       <c r="Q60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4326,7 +4326,7 @@
         <v>7.26330284412708e-002</v>
       </c>
       <c r="Q61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -4391,7 +4391,7 @@
         <v>5.46792657048565e-002</v>
       </c>
       <c r="Q62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -4456,7 +4456,7 @@
         <v>7.90637829866577e-002</v>
       </c>
       <c r="Q63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4716,7 +4716,7 @@
         <v>0.101198424431196</v>
       </c>
       <c r="Q67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4781,7 +4781,7 @@
         <v>6.09238529266689e-002</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -4976,7 +4976,7 @@
         <v>0.102750731215726</v>
       </c>
       <c r="Q71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5041,7 +5041,7 @@
         <v>8.24854416929773e-002</v>
       </c>
       <c r="Q72" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5106,7 +5106,7 @@
         <v>9.97785603984929e-002</v>
       </c>
       <c r="Q73" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5236,7 +5236,7 @@
         <v>6.10419961685657e-002</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -5301,7 +5301,7 @@
         <v>0.04973201371155</v>
       </c>
       <c r="Q76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -5626,7 +5626,7 @@
         <v>8.27423012614135e-002</v>
       </c>
       <c r="Q81" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5756,7 +5756,7 @@
         <v>5.91071059249843e-002</v>
       </c>
       <c r="Q83" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -5886,7 +5886,7 @@
         <v>6.35365577442916e-002</v>
       </c>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
